--- a/Sudoku/sudoku.xlsx
+++ b/Sudoku/sudoku.xlsx
@@ -1,45 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehalpern\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE44B3C-A993-4F09-85EB-B7920AD22C17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" xr2:uid="{4FE7D140-46BE-47B4-AEC5-46CBEC32A59F}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (3)" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1 (3)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -138,30 +128,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -461,234 +510,280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0071C2C-0557-4A12-98F3-C270524293CB}">
-  <dimension ref="A1:S9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="20" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="20" customHeight="1" zeroHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="4.6328125" customWidth="1"/>
-    <col min="3" max="3" width="4.6328125" style="2" customWidth="1"/>
-    <col min="4" max="6" width="4.6328125" customWidth="1"/>
-    <col min="7" max="7" width="4.6328125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="4.6328125" customWidth="1"/>
-    <col min="10" max="19" width="0" hidden="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" hidden="1"/>
+    <col width="4.6328125" customWidth="1" style="9" min="1" max="2"/>
+    <col width="4.6328125" customWidth="1" style="2" min="3" max="3"/>
+    <col width="4.6328125" customWidth="1" style="9" min="4" max="6"/>
+    <col width="4.6328125" customWidth="1" style="1" min="7" max="7"/>
+    <col width="4.6328125" customWidth="1" style="9" min="8" max="9"/>
+    <col hidden="1" style="9" min="10" max="19"/>
+    <col hidden="1" width="8.7265625" customWidth="1" style="9" min="20" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1">
+    <row r="1" ht="20" customHeight="1" s="9">
+      <c r="A1" t="n">
         <v>9</v>
       </c>
-      <c r="D1">
+      <c r="D1" t="n">
         <v>1</v>
       </c>
-      <c r="E1">
+      <c r="E1" t="n">
         <v>3</v>
       </c>
-      <c r="H1">
+      <c r="H1" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I2">
+      <c r="I1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="9">
+      <c r="I2" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4">
+    <row r="3" ht="20" customFormat="1" customHeight="1" s="4" thickBot="1">
+      <c r="A3" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4">
+      <c r="C3" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="4" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" ht="20" customHeight="1" s="9" thickTop="1">
+      <c r="A4" t="n">
         <v>6</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>9</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" ht="20" customHeight="1" s="9">
+      <c r="A5" t="n">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>8</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>7</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I5">
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E6">
+    <row r="6" ht="20" customHeight="1" s="9" thickBot="1">
+      <c r="E6" t="n">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="6">
+    <row r="7" ht="20" customFormat="1" customHeight="1" s="6" thickTop="1">
+      <c r="B7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="I7" s="6">
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" s="6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="9">
+    <row r="8" ht="20" customHeight="1" s="9">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
         <v>9</v>
       </c>
-      <c r="G8" s="1">
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>4</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="2">
+    <row r="9" ht="20" customHeight="1" s="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" t="n">
         <v>6</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>8</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" fitToHeight="0" fitToWidth="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3172FA-5125-47D8-BA53-31AE08F6A108}">
-  <dimension ref="C1:S9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="C3:G3"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="20" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="20" customHeight="1" zeroHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="4.6328125" customWidth="1"/>
-    <col min="3" max="3" width="4.6328125" style="2" customWidth="1"/>
-    <col min="4" max="6" width="4.6328125" customWidth="1"/>
-    <col min="7" max="7" width="4.6328125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="4.6328125" customWidth="1"/>
-    <col min="10" max="19" width="0" hidden="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" hidden="1"/>
+    <col width="4.6328125" customWidth="1" style="9" min="1" max="2"/>
+    <col width="4.6328125" customWidth="1" style="2" min="3" max="3"/>
+    <col width="4.6328125" customWidth="1" style="9" min="4" max="6"/>
+    <col width="4.6328125" customWidth="1" style="1" min="7" max="7"/>
+    <col width="4.6328125" customWidth="1" style="9" min="8" max="9"/>
+    <col hidden="1" style="9" min="10" max="19"/>
+    <col hidden="1" width="8.7265625" customWidth="1" style="9" min="20" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:7" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="3:7" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="3"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="3:7" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="3:7" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="3:7" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="3:7" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="3:7" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="3:7" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1" ht="20" customHeight="1" s="9"/>
+    <row r="2" ht="20" customHeight="1" s="9"/>
+    <row r="3" ht="20" customFormat="1" customHeight="1" s="4" thickBot="1">
+      <c r="C3" s="3" t="n"/>
+      <c r="G3" s="5" t="n"/>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="9" thickTop="1"/>
+    <row r="5" ht="20" customHeight="1" s="9"/>
+    <row r="6" ht="20" customHeight="1" s="9"/>
+    <row r="7" ht="20" customHeight="1" s="9"/>
+    <row r="8" ht="20" customHeight="1" s="9"/>
+    <row r="9" ht="20" customHeight="1" s="9"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" fitToHeight="0" fitToWidth="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3726E9-441E-4FDB-9DFC-0945E5A4E502}">
-  <dimension ref="C1:S9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="C3:G3"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="20" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="20" customHeight="1" zeroHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="4.6328125" customWidth="1"/>
-    <col min="3" max="3" width="4.6328125" style="2" customWidth="1"/>
-    <col min="4" max="6" width="4.6328125" customWidth="1"/>
-    <col min="7" max="7" width="4.6328125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="4.6328125" customWidth="1"/>
-    <col min="10" max="19" width="0" hidden="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" hidden="1"/>
+    <col width="4.6328125" customWidth="1" style="9" min="1" max="2"/>
+    <col width="4.6328125" customWidth="1" style="2" min="3" max="3"/>
+    <col width="4.6328125" customWidth="1" style="9" min="4" max="6"/>
+    <col width="4.6328125" customWidth="1" style="1" min="7" max="7"/>
+    <col width="4.6328125" customWidth="1" style="9" min="8" max="9"/>
+    <col hidden="1" style="9" min="10" max="19"/>
+    <col hidden="1" width="8.7265625" customWidth="1" style="9" min="20" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:7" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="3:7" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="3"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="3:7" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="3:7" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="3:7" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="3:7" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="3:7" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="3:7" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1" ht="20" customHeight="1" s="9"/>
+    <row r="2" ht="20" customHeight="1" s="9"/>
+    <row r="3" ht="20" customFormat="1" customHeight="1" s="4" thickBot="1">
+      <c r="C3" s="3" t="n"/>
+      <c r="G3" s="5" t="n"/>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="9" thickTop="1"/>
+    <row r="5" ht="20" customHeight="1" s="9"/>
+    <row r="6" ht="20" customHeight="1" s="9"/>
+    <row r="7" ht="20" customHeight="1" s="9"/>
+    <row r="8" ht="20" customHeight="1" s="9"/>
+    <row r="9" ht="20" customHeight="1" s="9"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" fitToHeight="0" fitToWidth="0"/>
 </worksheet>
 </file>